--- a/data.xlsx
+++ b/data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Diablo II LOD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542CE301-5226-464D-A6D7-36B452D11761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B726F93-20A1-4B18-98A4-94FC8A154C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
   </bookViews>
   <sheets>
     <sheet name="DropMult" sheetId="1" r:id="rId1"/>
-    <sheet name="UniqueOrder" sheetId="2" r:id="rId2"/>
+    <sheet name="Set Items" sheetId="3" r:id="rId2"/>
+    <sheet name="Unique Items" sheetId="2" r:id="rId3"/>
+    <sheet name="Unique Rings" sheetId="4" r:id="rId4"/>
+    <sheet name="Unique Amulets" sheetId="5" r:id="rId5"/>
+    <sheet name="Rainbow Facets" sheetId="6" r:id="rId6"/>
+    <sheet name="Unique Charms" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="442">
   <si>
     <t>A</t>
   </si>
@@ -184,9 +189,6 @@
     <t>Brainhew</t>
   </si>
   <si>
-    <t>Bul-Kathos' Wedding Band</t>
-  </si>
-  <si>
     <t>Buriza-Do Kyanon</t>
   </si>
   <si>
@@ -320,9 +322,6 @@
   </si>
   <si>
     <t>Duskdeep</t>
-  </si>
-  <si>
-    <t>Dwarf Star</t>
   </si>
   <si>
     <t>E</t>
@@ -733,9 +732,6 @@
     <t>Radament's Sphere</t>
   </si>
   <si>
-    <t>Rainbow Facet (All)</t>
-  </si>
-  <si>
     <t>Rakescar</t>
   </si>
   <si>
@@ -1048,9 +1044,6 @@
     <t>The Jade Tan Do</t>
   </si>
   <si>
-    <t>The Mahim-Oak Curio</t>
-  </si>
-  <si>
     <t>The Meat Scraper</t>
   </si>
   <si>
@@ -1067,9 +1060,6 @@
   </si>
   <si>
     <t>The Redeemer</t>
-  </si>
-  <si>
-    <t>The Rising Sun</t>
   </si>
   <si>
     <t>The Salamander</t>
@@ -1230,6 +1220,167 @@
   </si>
   <si>
     <t>Multiplier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aldur's Watchtower</t>
+  </si>
+  <si>
+    <t>Angelic Raiment</t>
+  </si>
+  <si>
+    <t>Arcanna's Tricks</t>
+  </si>
+  <si>
+    <t>Arctic Gear</t>
+  </si>
+  <si>
+    <t>Berserker's Arsenal</t>
+  </si>
+  <si>
+    <t>Bul-Kathos' Children</t>
+  </si>
+  <si>
+    <t>Cathan's Traps</t>
+  </si>
+  <si>
+    <t>Civerb's Vestments</t>
+  </si>
+  <si>
+    <t>Cleglaw's Brace</t>
+  </si>
+  <si>
+    <t>Cow King's Leathers</t>
+  </si>
+  <si>
+    <t>Death's Disguise</t>
+  </si>
+  <si>
+    <t>Griswold's Legacy</t>
+  </si>
+  <si>
+    <t>Heaven's Brethren</t>
+  </si>
+  <si>
+    <t>Hsaru's Defense</t>
+  </si>
+  <si>
+    <t>Hwanin's Majesty</t>
+  </si>
+  <si>
+    <t>Immortal King</t>
+  </si>
+  <si>
+    <t>Infernal Tools</t>
+  </si>
+  <si>
+    <t>Iratha's Finery</t>
+  </si>
+  <si>
+    <t>Isenhart's Armory</t>
+  </si>
+  <si>
+    <t>M'avina's Battle Hymn</t>
+  </si>
+  <si>
+    <t>Milabrega's Regalia</t>
+  </si>
+  <si>
+    <t>Naj's Ancient Vestige</t>
+  </si>
+  <si>
+    <t>Natalya's Odium</t>
+  </si>
+  <si>
+    <t>Orphan's Call</t>
+  </si>
+  <si>
+    <t>Sander's Folly</t>
+  </si>
+  <si>
+    <t>Sazabi's Grand Tribute</t>
+  </si>
+  <si>
+    <t>Sigon's Complete Steel</t>
+  </si>
+  <si>
+    <t>Tal Rasha's Wrappings</t>
+  </si>
+  <si>
+    <t>Tancred's Battlegear</t>
+  </si>
+  <si>
+    <t>The Disciple</t>
+  </si>
+  <si>
+    <t>Trang-Oul's Avatar</t>
+  </si>
+  <si>
+    <t>Vidala's Rig</t>
+  </si>
+  <si>
+    <t>Dwarft Star</t>
+  </si>
+  <si>
+    <t>Bul Kathos' Wedding Band</t>
+  </si>
+  <si>
+    <t>Eye of Etlich</t>
+  </si>
+  <si>
+    <t>Rainbow Facet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frost Nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meteor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chain Lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison Nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annihilus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gheed's Fortune</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hellfire Torch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Rising Sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Mahim-Oak Curio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1602,9 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8247C134-7BCE-4131-9AE5-0AE55735FF5F}">
   <dimension ref="A1:K1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="C513" sqref="C513"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1614,10 +1763,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -3198,7 +3347,7 @@
         <v>1016</v>
       </c>
       <c r="F36">
-        <f t="shared" ref="E36:K99" si="3">ROUNDUP(1024*(F$1*$B36-1)/F$1/$B36,0)</f>
+        <f t="shared" ref="E36:K72" si="3">ROUNDUP(1024*(F$1*$B36-1)/F$1/$B36,0)</f>
         <v>1017</v>
       </c>
       <c r="G36">
@@ -4830,7 +4979,7 @@
         <v>1014</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="E72:K135" si="6">ROUNDUP(1024*(I$1*$B72-1)/I$1/$B72,0)</f>
+        <f t="shared" ref="E72:K108" si="6">ROUNDUP(1024*(I$1*$B72-1)/I$1/$B72,0)</f>
         <v>1016</v>
       </c>
       <c r="J72">
@@ -7293,7 +7442,7 @@
         <v>993</v>
       </c>
       <c r="F127">
-        <f t="shared" ref="E127:K190" si="7">ROUNDUP(1024*(F$1*$B127-1)/F$1/$B127,0)</f>
+        <f t="shared" ref="E127:K163" si="7">ROUNDUP(1024*(F$1*$B127-1)/F$1/$B127,0)</f>
         <v>999</v>
       </c>
       <c r="G127">
@@ -8925,7 +9074,7 @@
         <v>1001</v>
       </c>
       <c r="I163">
-        <f t="shared" ref="E163:K226" si="10">ROUNDUP(1024*(I$1*$B163-1)/I$1/$B163,0)</f>
+        <f t="shared" ref="E163:K199" si="10">ROUNDUP(1024*(I$1*$B163-1)/I$1/$B163,0)</f>
         <v>1004</v>
       </c>
       <c r="J163">
@@ -11388,7 +11537,7 @@
         <v>970</v>
       </c>
       <c r="F218">
-        <f t="shared" ref="E218:K281" si="13">ROUNDUP(1024*(F$1*$B218-1)/F$1/$B218,0)</f>
+        <f t="shared" ref="E218:K254" si="13">ROUNDUP(1024*(F$1*$B218-1)/F$1/$B218,0)</f>
         <v>981</v>
       </c>
       <c r="G218">
@@ -13020,7 +13169,7 @@
         <v>988</v>
       </c>
       <c r="I254">
-        <f t="shared" ref="E254:K317" si="14">ROUNDUP(1024*(I$1*$B254-1)/I$1/$B254,0)</f>
+        <f t="shared" ref="E254:K290" si="14">ROUNDUP(1024*(I$1*$B254-1)/I$1/$B254,0)</f>
         <v>993</v>
       </c>
       <c r="J254">
@@ -15483,7 +15632,7 @@
         <v>947</v>
       </c>
       <c r="F309">
-        <f t="shared" ref="E309:K372" si="17">ROUNDUP(1024*(F$1*$B309-1)/F$1/$B309,0)</f>
+        <f t="shared" ref="E309:K345" si="17">ROUNDUP(1024*(F$1*$B309-1)/F$1/$B309,0)</f>
         <v>963</v>
       </c>
       <c r="G309">
@@ -17115,7 +17264,7 @@
         <v>975</v>
       </c>
       <c r="I345">
-        <f t="shared" ref="E345:K408" si="20">ROUNDUP(1024*(I$1*$B345-1)/I$1/$B345,0)</f>
+        <f t="shared" ref="E345:K381" si="20">ROUNDUP(1024*(I$1*$B345-1)/I$1/$B345,0)</f>
         <v>981</v>
       </c>
       <c r="J345">
@@ -19803,7 +19952,7 @@
         <v>923</v>
       </c>
       <c r="F405">
-        <f t="shared" ref="E405:K468" si="23">ROUNDUP(1024*(F$1*$B405-1)/F$1/$B405,0)</f>
+        <f t="shared" ref="E405:K441" si="23">ROUNDUP(1024*(F$1*$B405-1)/F$1/$B405,0)</f>
         <v>944</v>
       </c>
       <c r="G405">
@@ -21435,7 +21584,7 @@
         <v>962</v>
       </c>
       <c r="I441">
-        <f t="shared" ref="E441:K504" si="24">ROUNDUP(1024*(I$1*$B441-1)/I$1/$B441,0)</f>
+        <f t="shared" ref="E441:K477" si="24">ROUNDUP(1024*(I$1*$B441-1)/I$1/$B441,0)</f>
         <v>969</v>
       </c>
       <c r="J441">
@@ -23898,7 +24047,7 @@
         <v>901</v>
       </c>
       <c r="F496">
-        <f t="shared" ref="E496:K559" si="27">ROUNDUP(1024*(F$1*$B496-1)/F$1/$B496,0)</f>
+        <f t="shared" ref="E496:K532" si="27">ROUNDUP(1024*(F$1*$B496-1)/F$1/$B496,0)</f>
         <v>925</v>
       </c>
       <c r="G496">
@@ -25530,7 +25679,7 @@
         <v>949</v>
       </c>
       <c r="I532">
-        <f t="shared" ref="E532:K595" si="30">ROUNDUP(1024*(I$1*$B532-1)/I$1/$B532,0)</f>
+        <f t="shared" ref="E532:K568" si="30">ROUNDUP(1024*(I$1*$B532-1)/I$1/$B532,0)</f>
         <v>958</v>
       </c>
       <c r="J532">
@@ -28443,7 +28592,7 @@
         <v>875</v>
       </c>
       <c r="F597">
-        <f t="shared" ref="E597:K660" si="33">ROUNDUP(1024*(F$1*$B597-1)/F$1/$B597,0)</f>
+        <f t="shared" ref="E597:K633" si="33">ROUNDUP(1024*(F$1*$B597-1)/F$1/$B597,0)</f>
         <v>905</v>
       </c>
       <c r="G597">
@@ -30075,7 +30224,7 @@
         <v>934</v>
       </c>
       <c r="I633">
-        <f t="shared" ref="E633:K696" si="34">ROUNDUP(1024*(I$1*$B633-1)/I$1/$B633,0)</f>
+        <f t="shared" ref="E633:K669" si="34">ROUNDUP(1024*(I$1*$B633-1)/I$1/$B633,0)</f>
         <v>945</v>
       </c>
       <c r="J633">
@@ -32538,7 +32687,7 @@
         <v>853</v>
       </c>
       <c r="F688">
-        <f t="shared" ref="E688:K751" si="37">ROUNDUP(1024*(F$1*$B688-1)/F$1/$B688,0)</f>
+        <f t="shared" ref="E688:K724" si="37">ROUNDUP(1024*(F$1*$B688-1)/F$1/$B688,0)</f>
         <v>887</v>
       </c>
       <c r="G688">
@@ -34170,7 +34319,7 @@
         <v>921</v>
       </c>
       <c r="I724">
-        <f t="shared" ref="E724:K787" si="40">ROUNDUP(1024*(I$1*$B724-1)/I$1/$B724,0)</f>
+        <f t="shared" ref="E724:K760" si="40">ROUNDUP(1024*(I$1*$B724-1)/I$1/$B724,0)</f>
         <v>934</v>
       </c>
       <c r="J724">
@@ -37083,7 +37232,7 @@
         <v>827</v>
       </c>
       <c r="F789">
-        <f t="shared" ref="E789:K852" si="43">ROUNDUP(1024*(F$1*$B789-1)/F$1/$B789,0)</f>
+        <f t="shared" ref="E789:K825" si="43">ROUNDUP(1024*(F$1*$B789-1)/F$1/$B789,0)</f>
         <v>867</v>
       </c>
       <c r="G789">
@@ -38715,7 +38864,7 @@
         <v>907</v>
       </c>
       <c r="I825">
-        <f t="shared" ref="E825:K888" si="44">ROUNDUP(1024*(I$1*$B825-1)/I$1/$B825,0)</f>
+        <f t="shared" ref="E825:K861" si="44">ROUNDUP(1024*(I$1*$B825-1)/I$1/$B825,0)</f>
         <v>921</v>
       </c>
       <c r="J825">
@@ -41178,7 +41327,7 @@
         <v>805</v>
       </c>
       <c r="F880">
-        <f t="shared" ref="E880:K943" si="47">ROUNDUP(1024*(F$1*$B880-1)/F$1/$B880,0)</f>
+        <f t="shared" ref="E880:K916" si="47">ROUNDUP(1024*(F$1*$B880-1)/F$1/$B880,0)</f>
         <v>849</v>
       </c>
       <c r="G880">
@@ -42810,7 +42959,7 @@
         <v>894</v>
       </c>
       <c r="I916">
-        <f t="shared" ref="E916:K979" si="50">ROUNDUP(1024*(I$1*$B916-1)/I$1/$B916,0)</f>
+        <f t="shared" ref="E916:K952" si="50">ROUNDUP(1024*(I$1*$B916-1)/I$1/$B916,0)</f>
         <v>910</v>
       </c>
       <c r="J916">
@@ -45731,7 +45880,7 @@
         <v>861</v>
       </c>
       <c r="H981">
-        <f t="shared" ref="E981:K1025" si="53">ROUNDUP(1024*(H$1*$B981-1)/H$1/$B981,0)</f>
+        <f t="shared" ref="E981:K1017" si="53">ROUNDUP(1024*(H$1*$B981-1)/H$1/$B981,0)</f>
         <v>884</v>
       </c>
       <c r="I981">
@@ -47735,10 +47884,354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C76F5D0-DC31-4A6A-A7AC-A0F240C4D23A}">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D967D6-5472-4C90-A86C-39FA06C9944B}">
-  <dimension ref="A1:B419"/>
+  <dimension ref="A1:B398"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -47835,7 +48328,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -47843,7 +48336,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -47851,1618 +48344,1596 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0</v>
+      </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>36</v>
-      </c>
       <c r="B54" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>15</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>16</v>
-      </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>3</v>
+      </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B93" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>17</v>
-      </c>
-      <c r="B95" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>18</v>
-      </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>4</v>
+      </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>2</v>
-      </c>
-      <c r="B104" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>3</v>
-      </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B107" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B108" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>3</v>
+      </c>
+      <c r="B109" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>4</v>
+      </c>
       <c r="B110" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>2</v>
-      </c>
-      <c r="B113" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>3</v>
-      </c>
       <c r="B114" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>4</v>
+      </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B135" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>22</v>
-      </c>
-      <c r="B142" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>23</v>
-      </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>4</v>
+      </c>
       <c r="B148" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B159" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B162" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B163" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B164" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B165" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B166" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B167" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B168" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>20</v>
-      </c>
-      <c r="B169" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>21</v>
-      </c>
       <c r="B170" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B173" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>166</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>4</v>
+      </c>
+      <c r="B175" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>5</v>
+      </c>
       <c r="B176" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>0</v>
-      </c>
-      <c r="B177" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>1</v>
-      </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B180" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>4</v>
-      </c>
-      <c r="B181" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>5</v>
-      </c>
       <c r="B182" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>1</v>
+      </c>
       <c r="B184" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B185" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B188" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>0</v>
-      </c>
       <c r="B189" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B192" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
+        <v>3</v>
+      </c>
+      <c r="B193" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
         <v>4</v>
       </c>
-      <c r="B193" t="s">
-        <v>182</v>
+      <c r="B194" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>5</v>
+      </c>
       <c r="B195" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B197" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B201" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>6</v>
-      </c>
-      <c r="B202" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>7</v>
-      </c>
       <c r="B203" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B205" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B206" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B207" t="s">
-        <v>195</v>
+        <v>199</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>5</v>
+      </c>
       <c r="B209" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B211" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213">
-        <v>3</v>
-      </c>
-      <c r="B213" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214">
-        <v>4</v>
-      </c>
       <c r="B214" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B215" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B216" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B217" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B218" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219">
-        <v>9</v>
-      </c>
-      <c r="B219" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220">
-        <v>10</v>
-      </c>
       <c r="B220" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B223" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>1</v>
+      </c>
+      <c r="B222" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>0</v>
-      </c>
       <c r="B224" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B226" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B227" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B228" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
         <v>6</v>
       </c>
-      <c r="B230" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B232" t="s">
-        <v>217</v>
+      <c r="B231" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233">
-        <v>0</v>
-      </c>
       <c r="B233" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B234" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B236" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -49470,1375 +49941,1592 @@
         <v>0</v>
       </c>
       <c r="B237" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B238" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B239" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B240" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B242" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>227</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>9</v>
+      </c>
+      <c r="B244" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>10</v>
+      </c>
       <c r="B245" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B246" t="s">
-        <v>229</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>12</v>
+      </c>
+      <c r="B247" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>13</v>
+      </c>
       <c r="B248" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B249" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B250" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B251" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B252" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B253" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B254" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255">
-        <v>6</v>
-      </c>
-      <c r="B255" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256">
-        <v>7</v>
-      </c>
       <c r="B256" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B258" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B259" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B260" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B261" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B262" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B265" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B267" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>250</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>12</v>
+      </c>
+      <c r="B269" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>13</v>
+      </c>
       <c r="B270" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B271" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B272" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B273" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B274" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B275" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B276" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B277" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B278" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B279" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B280" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B281" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B282" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B284" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B285" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B286" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B287" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B288" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B289" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B290" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B291" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B292" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B293" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B294" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B295" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B296" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B297" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="B298" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B299" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B300" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B301" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B302" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B303" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B304" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B305" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B306" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B307" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B308" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B309" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B310" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B311" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B312" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B313" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314">
-        <v>43</v>
-      </c>
-      <c r="B314" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315">
-        <v>44</v>
-      </c>
       <c r="B315" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B316" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="B317" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B318" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B319" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B320" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="B321" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="B324" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="B326" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B328" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="B329" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B330" t="s">
-        <v>311</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>15</v>
+      </c>
+      <c r="B331" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>16</v>
+      </c>
       <c r="B332" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B333" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B334" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B335" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B336" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B337" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B338" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B339" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B340" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B341" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B342" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B343" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B344" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B345" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B346" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B347" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B348" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B349" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B350" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B351" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B352" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B353" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B354" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B355" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B356" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B357" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B358" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B359" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B360" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B361" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362">
-        <v>29</v>
-      </c>
-      <c r="B362" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363">
-        <v>30</v>
-      </c>
       <c r="B363" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B364" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B365" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B366" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A367">
-        <v>34</v>
-      </c>
-      <c r="B367" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A368">
-        <v>35</v>
-      </c>
       <c r="B368" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B369" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B370" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B371" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B372" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B373" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B374" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A377">
-        <v>44</v>
-      </c>
-      <c r="B377" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A378">
-        <v>45</v>
-      </c>
       <c r="B378" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="B379" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B380" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B381" t="s">
-        <v>361</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>3</v>
+      </c>
+      <c r="B382" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>4</v>
+      </c>
       <c r="B383" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B384" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B385" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>365</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>8</v>
+      </c>
+      <c r="B387" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>9</v>
+      </c>
       <c r="B388" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B389" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B390" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B391" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B392" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B393" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B394" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395">
+        <v>16</v>
+      </c>
+      <c r="B395" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B397" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>0</v>
+      </c>
+      <c r="B398" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829761FD-4499-474D-94D0-520F26228D2F}">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B395" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A396">
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B396" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B398" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A399">
+      <c r="B9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B10">
+    <sortCondition ref="B2:B10"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8208AF0C-A684-4202-BBD6-5A4B78BD1E37}">
+  <dimension ref="A2:B13"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B399" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A400">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B400" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A401">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B401" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A402">
+      <c r="B4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B402" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A403">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B403" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404">
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B404" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405">
+      <c r="B7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B405" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406">
+      <c r="B8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B406" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407">
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B407" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408">
+      <c r="B10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B408" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409">
+      <c r="B11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B409" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410">
+      <c r="B12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B410" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411">
-        <v>12</v>
-      </c>
-      <c r="B411" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412">
-        <v>13</v>
-      </c>
-      <c r="B412" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413">
-        <v>14</v>
-      </c>
-      <c r="B413" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414">
-        <v>15</v>
-      </c>
-      <c r="B414" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415">
-        <v>16</v>
-      </c>
-      <c r="B415" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416">
-        <v>17</v>
-      </c>
-      <c r="B416" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B418" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419">
+      <c r="B13" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+    <sortCondition ref="B2:B13"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83CD3AE-EAA0-4B87-82B2-3F19A0F60658}">
+  <dimension ref="A2:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B419" t="s">
-        <v>395</v>
+      <c r="B2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC74B19-CCB5-4585-9D9C-563E439663ED}">
+  <dimension ref="A2:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Diablo II LOD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B726F93-20A1-4B18-98A4-94FC8A154C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A18D2EA-57AA-49A6-9ADF-83D3E51AD26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="7" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
   </bookViews>
   <sheets>
     <sheet name="DropMult" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Unique Amulets" sheetId="5" r:id="rId5"/>
     <sheet name="Rainbow Facets" sheetId="6" r:id="rId6"/>
     <sheet name="Unique Charms" sheetId="7" r:id="rId7"/>
+    <sheet name="Poison Damage" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="444">
   <si>
     <t>A</t>
   </si>
@@ -1005,9 +1006,6 @@
     <t>The Dragon Chang</t>
   </si>
   <si>
-    <t>The Eye of Etlich</t>
-  </si>
-  <si>
     <t>The Face of Horror</t>
   </si>
   <si>
@@ -1383,6 +1381,18 @@
     <t>The Mahim-Oak Curio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1408,12 +1418,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1430,11 +1446,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1763,10 +1785,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -47907,7 +47929,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -47915,7 +47937,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -47923,7 +47945,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -47931,7 +47953,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -47944,7 +47966,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -47952,7 +47974,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -47965,7 +47987,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -47973,7 +47995,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -47981,7 +48003,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -47989,7 +48011,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -48002,7 +48024,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -48015,7 +48037,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -48028,7 +48050,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -48036,7 +48058,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -48044,7 +48066,7 @@
         <v>2</v>
       </c>
       <c r="B26" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -48057,7 +48079,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -48065,7 +48087,7 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -48073,7 +48095,7 @@
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -48081,7 +48103,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -48094,7 +48116,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -48102,7 +48124,7 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -48115,7 +48137,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -48123,7 +48145,7 @@
         <v>1</v>
       </c>
       <c r="B40" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -48136,7 +48158,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -48149,7 +48171,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -48157,7 +48179,7 @@
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -48165,7 +48187,7 @@
         <v>2</v>
       </c>
       <c r="B48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -48178,7 +48200,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -48186,7 +48208,7 @@
         <v>1</v>
       </c>
       <c r="B52" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -48194,7 +48216,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -48202,12 +48224,12 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -48215,7 +48237,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -48227,2943 +48249,1452 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D967D6-5472-4C90-A86C-39FA06C9944B}">
-  <dimension ref="A1:B398"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B395" sqref="B395"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="U18" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="T26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U26" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>20</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>21</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="T38" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>22</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="T39" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>23</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="T40" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>24</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="T41" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>25</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="T42" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>26</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="T43" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>27</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="T44" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>28</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="T45" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="T46" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>30</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="T47" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>31</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="T48" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="T49" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>33</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="T50" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>34</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="T51" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>35</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="T52" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="T53" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="T54" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56" t="s">
+      <c r="T55" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="T57" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>3</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>4</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>6</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>8</v>
-      </c>
-      <c r="B63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>9</v>
-      </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>10</v>
-      </c>
-      <c r="B65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>11</v>
-      </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>12</v>
-      </c>
-      <c r="B67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>14</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>3</v>
-      </c>
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>6</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>7</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>8</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>9</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>10</v>
-      </c>
-      <c r="B84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>11</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>12</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>13</v>
-      </c>
-      <c r="B87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>14</v>
-      </c>
-      <c r="B88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>15</v>
-      </c>
-      <c r="B89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>16</v>
-      </c>
-      <c r="B90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>17</v>
-      </c>
-      <c r="B91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>18</v>
-      </c>
-      <c r="B92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>19</v>
-      </c>
-      <c r="B93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>20</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="B97" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>2</v>
-      </c>
-      <c r="B99" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>0</v>
-      </c>
-      <c r="B106" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>2</v>
-      </c>
-      <c r="B108" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>3</v>
-      </c>
-      <c r="B109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>4</v>
-      </c>
-      <c r="B110" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>5</v>
-      </c>
-      <c r="B111" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>6</v>
-      </c>
-      <c r="B112" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>0</v>
-      </c>
-      <c r="B115" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>1</v>
-      </c>
-      <c r="B116" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>2</v>
-      </c>
-      <c r="B117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>3</v>
-      </c>
-      <c r="B118" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>4</v>
-      </c>
-      <c r="B119" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>5</v>
-      </c>
-      <c r="B120" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>6</v>
-      </c>
-      <c r="B121" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>7</v>
-      </c>
-      <c r="B122" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>8</v>
-      </c>
-      <c r="B123" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>9</v>
-      </c>
-      <c r="B124" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>10</v>
-      </c>
-      <c r="B125" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>11</v>
-      </c>
-      <c r="B126" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>12</v>
-      </c>
-      <c r="B127" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>14</v>
-      </c>
-      <c r="B129" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>15</v>
-      </c>
-      <c r="B130" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>16</v>
-      </c>
-      <c r="B131" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>17</v>
-      </c>
-      <c r="B132" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>18</v>
-      </c>
-      <c r="B133" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>19</v>
-      </c>
-      <c r="B134" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>20</v>
-      </c>
-      <c r="B135" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>21</v>
-      </c>
-      <c r="B136" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>22</v>
-      </c>
-      <c r="B137" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>23</v>
-      </c>
-      <c r="B138" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>24</v>
-      </c>
-      <c r="B139" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>25</v>
-      </c>
-      <c r="B140" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>26</v>
-      </c>
-      <c r="B141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>0</v>
-      </c>
-      <c r="B144" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>2</v>
-      </c>
-      <c r="B146" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>3</v>
-      </c>
-      <c r="B147" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>4</v>
-      </c>
-      <c r="B148" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>5</v>
-      </c>
-      <c r="B149" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>6</v>
-      </c>
-      <c r="B150" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>7</v>
-      </c>
-      <c r="B151" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>8</v>
-      </c>
-      <c r="B152" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>9</v>
-      </c>
-      <c r="B153" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>10</v>
-      </c>
-      <c r="B154" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>11</v>
-      </c>
-      <c r="B155" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>12</v>
-      </c>
-      <c r="B156" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>13</v>
-      </c>
-      <c r="B157" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>14</v>
-      </c>
-      <c r="B158" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>15</v>
-      </c>
-      <c r="B159" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>16</v>
-      </c>
-      <c r="B160" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>17</v>
-      </c>
-      <c r="B161" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>18</v>
-      </c>
-      <c r="B162" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>19</v>
-      </c>
-      <c r="B163" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>20</v>
-      </c>
-      <c r="B164" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>21</v>
-      </c>
-      <c r="B165" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>22</v>
-      </c>
-      <c r="B166" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>23</v>
-      </c>
-      <c r="B167" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>24</v>
-      </c>
-      <c r="B168" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>0</v>
-      </c>
-      <c r="B171" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>1</v>
-      </c>
-      <c r="B172" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>2</v>
-      </c>
-      <c r="B173" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>3</v>
-      </c>
-      <c r="B174" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>4</v>
-      </c>
-      <c r="B175" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>5</v>
-      </c>
-      <c r="B176" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>0</v>
-      </c>
-      <c r="B179" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>1</v>
-      </c>
-      <c r="B180" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>0</v>
-      </c>
-      <c r="B183" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>1</v>
-      </c>
-      <c r="B184" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>2</v>
-      </c>
-      <c r="B185" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>3</v>
-      </c>
-      <c r="B186" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>4</v>
-      </c>
-      <c r="B187" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B189" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>0</v>
-      </c>
-      <c r="B190" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>1</v>
-      </c>
-      <c r="B191" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>2</v>
-      </c>
-      <c r="B192" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>3</v>
-      </c>
-      <c r="B193" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>4</v>
-      </c>
-      <c r="B194" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>5</v>
-      </c>
-      <c r="B195" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>6</v>
-      </c>
-      <c r="B196" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>7</v>
-      </c>
-      <c r="B197" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>8</v>
-      </c>
-      <c r="B198" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>9</v>
-      </c>
-      <c r="B199" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>10</v>
-      </c>
-      <c r="B200" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>11</v>
-      </c>
-      <c r="B201" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B203" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>0</v>
-      </c>
-      <c r="B204" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>1</v>
-      </c>
-      <c r="B205" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>2</v>
-      </c>
-      <c r="B206" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>3</v>
-      </c>
-      <c r="B207" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>4</v>
-      </c>
-      <c r="B208" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>5</v>
-      </c>
-      <c r="B209" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>6</v>
-      </c>
-      <c r="B210" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211">
-        <v>7</v>
-      </c>
-      <c r="B211" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212">
-        <v>8</v>
-      </c>
-      <c r="B212" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B214" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215">
-        <v>0</v>
-      </c>
-      <c r="B215" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216">
-        <v>1</v>
-      </c>
-      <c r="B216" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217">
-        <v>2</v>
-      </c>
-      <c r="B217" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218">
-        <v>3</v>
-      </c>
-      <c r="B218" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B220" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>0</v>
-      </c>
-      <c r="B221" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>1</v>
-      </c>
-      <c r="B222" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>0</v>
-      </c>
-      <c r="B225" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>1</v>
-      </c>
-      <c r="B226" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>2</v>
-      </c>
-      <c r="B227" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>3</v>
-      </c>
-      <c r="B228" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>4</v>
-      </c>
-      <c r="B229" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>5</v>
-      </c>
-      <c r="B230" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231">
-        <v>6</v>
-      </c>
-      <c r="B231" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B233" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>0</v>
-      </c>
-      <c r="B234" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237">
-        <v>0</v>
-      </c>
-      <c r="B237" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238">
-        <v>2</v>
-      </c>
-      <c r="B238" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239">
-        <v>3</v>
-      </c>
-      <c r="B239" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241">
-        <v>6</v>
-      </c>
-      <c r="B241" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242">
-        <v>7</v>
-      </c>
-      <c r="B242" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243">
-        <v>8</v>
-      </c>
-      <c r="B243" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244">
-        <v>9</v>
-      </c>
-      <c r="B244" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245">
-        <v>10</v>
-      </c>
-      <c r="B245" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246">
-        <v>11</v>
-      </c>
-      <c r="B246" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247">
-        <v>12</v>
-      </c>
-      <c r="B247" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248">
-        <v>13</v>
-      </c>
-      <c r="B248" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249">
-        <v>14</v>
-      </c>
-      <c r="B249" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250">
-        <v>15</v>
-      </c>
-      <c r="B250" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251">
-        <v>16</v>
-      </c>
-      <c r="B251" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252">
-        <v>17</v>
-      </c>
-      <c r="B252" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253">
-        <v>18</v>
-      </c>
-      <c r="B253" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254">
-        <v>19</v>
-      </c>
-      <c r="B254" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B256" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257">
-        <v>0</v>
-      </c>
-      <c r="B257" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258">
-        <v>1</v>
-      </c>
-      <c r="B258" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259">
-        <v>2</v>
-      </c>
-      <c r="B259" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260">
-        <v>3</v>
-      </c>
-      <c r="B260" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261">
-        <v>4</v>
-      </c>
-      <c r="B261" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262">
-        <v>5</v>
-      </c>
-      <c r="B262" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263">
-        <v>6</v>
-      </c>
-      <c r="B263" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264">
-        <v>7</v>
-      </c>
-      <c r="B264" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265">
-        <v>8</v>
-      </c>
-      <c r="B265" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266">
-        <v>9</v>
-      </c>
-      <c r="B266" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267">
-        <v>10</v>
-      </c>
-      <c r="B267" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <v>11</v>
-      </c>
-      <c r="B268" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269">
-        <v>12</v>
-      </c>
-      <c r="B269" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <v>13</v>
-      </c>
-      <c r="B270" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>14</v>
-      </c>
-      <c r="B271" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <v>15</v>
-      </c>
-      <c r="B272" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273">
-        <v>16</v>
-      </c>
-      <c r="B273" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274">
-        <v>17</v>
-      </c>
-      <c r="B274" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <v>18</v>
-      </c>
-      <c r="B275" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <v>19</v>
-      </c>
-      <c r="B276" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>20</v>
-      </c>
-      <c r="B277" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <v>21</v>
-      </c>
-      <c r="B278" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <v>22</v>
-      </c>
-      <c r="B279" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280">
-        <v>23</v>
-      </c>
-      <c r="B280" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281">
-        <v>24</v>
-      </c>
-      <c r="B281" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <v>25</v>
-      </c>
-      <c r="B282" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283">
-        <v>26</v>
-      </c>
-      <c r="B283" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284">
-        <v>27</v>
-      </c>
-      <c r="B284" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285">
-        <v>28</v>
-      </c>
-      <c r="B285" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286">
-        <v>29</v>
-      </c>
-      <c r="B286" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287">
-        <v>30</v>
-      </c>
-      <c r="B287" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288">
-        <v>31</v>
-      </c>
-      <c r="B288" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289">
-        <v>32</v>
-      </c>
-      <c r="B289" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290">
-        <v>33</v>
-      </c>
-      <c r="B290" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291">
-        <v>34</v>
-      </c>
-      <c r="B291" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292">
-        <v>35</v>
-      </c>
-      <c r="B292" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293">
-        <v>36</v>
-      </c>
-      <c r="B293" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294">
-        <v>37</v>
-      </c>
-      <c r="B294" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295">
-        <v>38</v>
-      </c>
-      <c r="B295" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296">
-        <v>39</v>
-      </c>
-      <c r="B296" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297">
-        <v>40</v>
-      </c>
-      <c r="B297" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298">
-        <v>41</v>
-      </c>
-      <c r="B298" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299">
-        <v>42</v>
-      </c>
-      <c r="B299" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300">
-        <v>43</v>
-      </c>
-      <c r="B300" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301">
-        <v>44</v>
-      </c>
-      <c r="B301" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302">
-        <v>45</v>
-      </c>
-      <c r="B302" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303">
-        <v>46</v>
-      </c>
-      <c r="B303" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304">
-        <v>47</v>
-      </c>
-      <c r="B304" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305">
-        <v>48</v>
-      </c>
-      <c r="B305" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306">
-        <v>49</v>
-      </c>
-      <c r="B306" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307">
-        <v>50</v>
-      </c>
-      <c r="B307" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308">
-        <v>51</v>
-      </c>
-      <c r="B308" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309">
-        <v>52</v>
-      </c>
-      <c r="B309" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310">
-        <v>53</v>
-      </c>
-      <c r="B310" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311">
-        <v>54</v>
-      </c>
-      <c r="B311" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312">
-        <v>55</v>
-      </c>
-      <c r="B312" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313">
-        <v>56</v>
-      </c>
-      <c r="B313" t="s">
+      <c r="T58" s="2" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B315" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316">
-        <v>0</v>
-      </c>
-      <c r="B316" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317">
-        <v>1</v>
-      </c>
-      <c r="B317" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318">
-        <v>2</v>
-      </c>
-      <c r="B318" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319">
-        <v>3</v>
-      </c>
-      <c r="B319" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320">
-        <v>4</v>
-      </c>
-      <c r="B320" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321">
-        <v>5</v>
-      </c>
-      <c r="B321" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322">
-        <v>6</v>
-      </c>
-      <c r="B322" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323">
-        <v>7</v>
-      </c>
-      <c r="B323" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324">
-        <v>8</v>
-      </c>
-      <c r="B324" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325">
-        <v>9</v>
-      </c>
-      <c r="B325" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326">
-        <v>10</v>
-      </c>
-      <c r="B326" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327">
-        <v>11</v>
-      </c>
-      <c r="B327" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328">
-        <v>12</v>
-      </c>
-      <c r="B328" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329">
-        <v>13</v>
-      </c>
-      <c r="B329" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330">
-        <v>14</v>
-      </c>
-      <c r="B330" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331">
-        <v>15</v>
-      </c>
-      <c r="B331" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332">
-        <v>16</v>
-      </c>
-      <c r="B332" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333">
-        <v>17</v>
-      </c>
-      <c r="B333" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334">
-        <v>18</v>
-      </c>
-      <c r="B334" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335">
-        <v>19</v>
-      </c>
-      <c r="B335" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336">
-        <v>20</v>
-      </c>
-      <c r="B336" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337">
-        <v>21</v>
-      </c>
-      <c r="B337" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338">
-        <v>22</v>
-      </c>
-      <c r="B338" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339">
-        <v>23</v>
-      </c>
-      <c r="B339" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340">
-        <v>24</v>
-      </c>
-      <c r="B340" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341">
-        <v>25</v>
-      </c>
-      <c r="B341" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342">
-        <v>26</v>
-      </c>
-      <c r="B342" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343">
-        <v>27</v>
-      </c>
-      <c r="B343" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344">
-        <v>28</v>
-      </c>
-      <c r="B344" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345">
-        <v>29</v>
-      </c>
-      <c r="B345" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346">
-        <v>30</v>
-      </c>
-      <c r="B346" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347">
-        <v>31</v>
-      </c>
-      <c r="B347" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348">
-        <v>32</v>
-      </c>
-      <c r="B348" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349">
-        <v>33</v>
-      </c>
-      <c r="B349" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350">
-        <v>34</v>
-      </c>
-      <c r="B350" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351">
-        <v>35</v>
-      </c>
-      <c r="B351" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352">
-        <v>36</v>
-      </c>
-      <c r="B352" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353">
-        <v>37</v>
-      </c>
-      <c r="B353" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354">
-        <v>38</v>
-      </c>
-      <c r="B354" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355">
-        <v>39</v>
-      </c>
-      <c r="B355" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356">
-        <v>40</v>
-      </c>
-      <c r="B356" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357">
-        <v>41</v>
-      </c>
-      <c r="B357" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358">
-        <v>42</v>
-      </c>
-      <c r="B358" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359">
-        <v>43</v>
-      </c>
-      <c r="B359" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360">
-        <v>44</v>
-      </c>
-      <c r="B360" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361">
-        <v>45</v>
-      </c>
-      <c r="B361" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B363" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364">
-        <v>0</v>
-      </c>
-      <c r="B364" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365">
-        <v>1</v>
-      </c>
-      <c r="B365" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366">
-        <v>2</v>
-      </c>
-      <c r="B366" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B368" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A369">
-        <v>0</v>
-      </c>
-      <c r="B369" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A370">
-        <v>1</v>
-      </c>
-      <c r="B370" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A371">
-        <v>2</v>
-      </c>
-      <c r="B371" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A372">
-        <v>3</v>
-      </c>
-      <c r="B372" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A373">
-        <v>4</v>
-      </c>
-      <c r="B373" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A374">
-        <v>5</v>
-      </c>
-      <c r="B374" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A375">
-        <v>6</v>
-      </c>
-      <c r="B375" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A376">
-        <v>7</v>
-      </c>
-      <c r="B376" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B378" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A379">
-        <v>0</v>
-      </c>
-      <c r="B379" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A380">
-        <v>1</v>
-      </c>
-      <c r="B380" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A381">
-        <v>2</v>
-      </c>
-      <c r="B381" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A382">
-        <v>3</v>
-      </c>
-      <c r="B382" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A383">
-        <v>4</v>
-      </c>
-      <c r="B383" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A384">
-        <v>5</v>
-      </c>
-      <c r="B384" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A385">
-        <v>6</v>
-      </c>
-      <c r="B385" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A386">
-        <v>7</v>
-      </c>
-      <c r="B386" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A387">
-        <v>8</v>
-      </c>
-      <c r="B387" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A388">
-        <v>9</v>
-      </c>
-      <c r="B388" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A389">
-        <v>10</v>
-      </c>
-      <c r="B389" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A390">
-        <v>11</v>
-      </c>
-      <c r="B390" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A391">
-        <v>12</v>
-      </c>
-      <c r="B391" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A392">
-        <v>13</v>
-      </c>
-      <c r="B392" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A393">
-        <v>14</v>
-      </c>
-      <c r="B393" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A394">
-        <v>15</v>
-      </c>
-      <c r="B394" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A395">
-        <v>16</v>
-      </c>
-      <c r="B395" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B397" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A398">
-        <v>0</v>
-      </c>
-      <c r="B398" t="s">
-        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -51190,7 +49721,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -51206,7 +49737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -51254,7 +49785,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -51300,7 +49831,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -51364,7 +49895,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -51372,7 +49903,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -51403,10 +49934,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" t="s">
         <v>428</v>
-      </c>
-      <c r="C2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -51414,10 +49945,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -51425,10 +49956,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -51436,10 +49967,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -51447,10 +49978,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -51458,10 +49989,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -51469,10 +50000,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -51480,10 +50011,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -51510,7 +50041,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -51518,7 +50049,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -51526,7 +50057,48 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CE4950-635D-4D71-99C9-E75BB094CED2}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" t="str">
+        <f>_xlfn.CONCAT(INT(A2*B2/256)," poison damage over ",INT(B2/25)," seconds")</f>
+        <v>2000 poison damage over 20 seconds</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Diablo II LOD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A18D2EA-57AA-49A6-9ADF-83D3E51AD26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977F8A81-C37D-4B02-AABF-6F93E6658372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="7" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
+    <workbookView xWindow="-28920" yWindow="7620" windowWidth="29040" windowHeight="15525" activeTab="2" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
   </bookViews>
   <sheets>
     <sheet name="DropMult" sheetId="1" r:id="rId1"/>
     <sheet name="Set Items" sheetId="3" r:id="rId2"/>
     <sheet name="Unique Items" sheetId="2" r:id="rId3"/>
-    <sheet name="Unique Rings" sheetId="4" r:id="rId4"/>
-    <sheet name="Unique Amulets" sheetId="5" r:id="rId5"/>
-    <sheet name="Rainbow Facets" sheetId="6" r:id="rId6"/>
-    <sheet name="Unique Charms" sheetId="7" r:id="rId7"/>
-    <sheet name="Poison Damage" sheetId="8" r:id="rId8"/>
+    <sheet name="EMF" sheetId="9" r:id="rId4"/>
+    <sheet name="Unique Rings" sheetId="4" r:id="rId5"/>
+    <sheet name="Unique Amulets" sheetId="5" r:id="rId6"/>
+    <sheet name="Rainbow Facets" sheetId="6" r:id="rId7"/>
+    <sheet name="Unique Charms" sheetId="7" r:id="rId8"/>
+    <sheet name="Poison Damage" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="448">
   <si>
     <t>A</t>
   </si>
@@ -1393,6 +1394,22 @@
     <t>value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -48251,11 +48268,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D967D6-5472-4C90-A86C-39FA06C9944B}">
   <dimension ref="A1:Y58"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U47" sqref="U47"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49704,6 +49721,2587 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FBE193-D741-4D5C-A5C8-A270E8EA5659}">
+  <dimension ref="A1:D151"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <f>INT(IF($A2&lt;10,$A2,$A2*250/($A2+250)))</f>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>INT(IF($A2&lt;10,$A2,$A2*250/($A2+500)))</f>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>INT(IF($A2&lt;10,$A2,$A2*250/($A2+600)))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="0">INT(IF($A3&lt;10,$A3,$A3*250/($A3+250)))</f>
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="1">INT(IF($A3&lt;10,$A3,$A3*250/($A3+500)))</f>
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="2">INT(IF($A3&lt;10,$A3,$A3*250/($A3+600)))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>130</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>140</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>160</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>170</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>180</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>200</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>210</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>220</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>230</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>240</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>250</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>260</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>270</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>129</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>280</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>290</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>300</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>310</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>320</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>330</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>340</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>350</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>360</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>370</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>380</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>390</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>400</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>410</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>420</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>430</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>440</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>159</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>450</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>460</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>470</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>163</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>480</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>490</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>500</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>510</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>520</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>530</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>540</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>550</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>560</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>132</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>570</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>173</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>580</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>174</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>590</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>600</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>610</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>620</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>630</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>640</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>650</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>660</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B130" si="3">INT(IF($A67&lt;10,$A67,$A67*250/($A67+250)))</f>
+        <v>181</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="4">INT(IF($A67&lt;10,$A67,$A67*250/($A67+500)))</f>
+        <v>142</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="5">INT(IF($A67&lt;10,$A67,$A67*250/($A67+600)))</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>670</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>680</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>690</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>183</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>144</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>700</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>710</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>184</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>146</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>720</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>147</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>730</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>148</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>740</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>186</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>149</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>750</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>187</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>760</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>770</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>188</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>151</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>780</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>152</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>790</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>800</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>153</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>810</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>154</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>820</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>191</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>155</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>830</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>840</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>850</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="5"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>860</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>193</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>870</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>158</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="5"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>880</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>194</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="5"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>890</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="5"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>900</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>160</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>910</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>920</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>161</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>930</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="4"/>
+        <v>162</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="5"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>940</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>950</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>197</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="4"/>
+        <v>163</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>960</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>970</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>198</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="4"/>
+        <v>164</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>980</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>990</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>199</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="5"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1000</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1010</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1020</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="4"/>
+        <v>167</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1030</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="5"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1040</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="5"/>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1050</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="3"/>
+        <v>201</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1060</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="4"/>
+        <v>169</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="5"/>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1070</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="3"/>
+        <v>202</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1080</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="4"/>
+        <v>170</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1090</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1100</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="4"/>
+        <v>171</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1110</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1120</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="4"/>
+        <v>172</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1130</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="3"/>
+        <v>204</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1140</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="4"/>
+        <v>173</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="5"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1150</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1160</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="4"/>
+        <v>174</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="5"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1170</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="3"/>
+        <v>205</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1180</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="4"/>
+        <v>175</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="5"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1190</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1200</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="3"/>
+        <v>206</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="5"/>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1210</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1220</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="5"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1230</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="3"/>
+        <v>207</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="4"/>
+        <v>177</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1240</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1250</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="5"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1260</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1270</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1280</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="4"/>
+        <v>179</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1290</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="3"/>
+        <v>209</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1300</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131:B151" si="6">INT(IF($A131&lt;10,$A131,$A131*250/($A131+250)))</f>
+        <v>209</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C151" si="7">INT(IF($A131&lt;10,$A131,$A131*250/($A131+500)))</f>
+        <v>180</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D151" si="8">INT(IF($A131&lt;10,$A131,$A131*250/($A131+600)))</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1310</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="6"/>
+        <v>209</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1320</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="7"/>
+        <v>181</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="8"/>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1330</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="7"/>
+        <v>181</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1340</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="8"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1350</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1360</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1370</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="7"/>
+        <v>183</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="8"/>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1380</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="7"/>
+        <v>183</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="8"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1390</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="6"/>
+        <v>211</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="7"/>
+        <v>183</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="8"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1400</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1410</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1420</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1430</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="6"/>
+        <v>212</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>1440</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>1450</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="8"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>1460</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="8"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>1470</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="8"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>1480</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="6"/>
+        <v>213</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="8"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>1490</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="8"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>1500</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="6"/>
+        <v>214</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="8"/>
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829761FD-4499-474D-94D0-520F26228D2F}">
   <dimension ref="A2:B10"/>
   <sheetViews>
@@ -49797,7 +52395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8208AF0C-A684-4202-BBD6-5A4B78BD1E37}">
   <dimension ref="A2:B13"/>
   <sheetViews>
@@ -49915,7 +52513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E83CD3AE-EAA0-4B87-82B2-3F19A0F60658}">
   <dimension ref="A2:C9"/>
   <sheetViews>
@@ -50023,7 +52621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC74B19-CCB5-4585-9D9C-563E439663ED}">
   <dimension ref="A2:B4"/>
   <sheetViews>
@@ -50066,11 +52664,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CE4950-635D-4D71-99C9-E75BB094CED2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D4737-808D-4FA6-9B27-CB10500AC47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3618D580-DCCF-43B3-AA09-9EBCB9842492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
   </bookViews>
@@ -1797,7 +1797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2248,7 +2248,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1014</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1004</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>992</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>973</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>960</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>922</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3618D580-DCCF-43B3-AA09-9EBCB9842492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F2E02-CC66-4CCD-8482-F666F1BB1E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
   </bookViews>
@@ -1796,8 +1796,8 @@
   <dimension ref="A1:K1025"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11023,7 +11023,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>819</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>818</v>
       </c>
@@ -11113,7 +11113,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>817</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>816</v>
       </c>
@@ -11203,7 +11203,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>815</v>
       </c>
@@ -11248,7 +11248,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>814</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>813</v>
       </c>
@@ -11338,7 +11338,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>812</v>
       </c>
@@ -11383,7 +11383,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>811</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>810</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>809</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>808</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>807</v>
       </c>
@@ -11608,7 +11608,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>806</v>
       </c>
@@ -11653,7 +11653,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>805</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>804</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>803</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>802</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>801</v>
       </c>
@@ -13318,7 +13318,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>768</v>
       </c>
@@ -17143,7 +17143,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>683</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Games\Diablo II LOD\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037F2E02-CC66-4CCD-8482-F666F1BB1E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9346B82E-9BF8-4824-A27E-2F4306A950E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{B5C7FBEC-5C21-4BB4-BF82-AC400E45706D}"/>
   </bookViews>
   <sheets>
     <sheet name="DropMult" sheetId="1" r:id="rId1"/>
@@ -1795,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8247C134-7BCE-4131-9AE5-0AE55735FF5F}">
   <dimension ref="A1:K1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C208" sqref="C208"/>
     </sheetView>
@@ -49732,9 +49732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FBE193-D741-4D5C-A5C8-A270E8EA5659}">
   <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -49762,12 +49762,12 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <f>INT(IF($A2&lt;10,$A2,$A2*250/($A2+500)))</f>
-        <v>4</v>
+        <f>INT(IF($A2&lt;10,$A2,$A2*500/($A2+500)))</f>
+        <v>9</v>
       </c>
       <c r="D2">
-        <f>INT(IF($A2&lt;10,$A2,$A2*250/($A2+600)))</f>
-        <v>4</v>
+        <f>INT(IF($A2&lt;10,$A2,$A2*600/($A2+600)))</f>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -49779,12 +49779,12 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">INT(IF($A3&lt;10,$A3,$A3*250/($A3+500)))</f>
-        <v>9</v>
+        <f t="shared" ref="C3:C66" si="1">INT(IF($A3&lt;10,$A3,$A3*500/($A3+500)))</f>
+        <v>19</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">INT(IF($A3&lt;10,$A3,$A3*250/($A3+600)))</f>
-        <v>8</v>
+        <f t="shared" ref="D3:D66" si="2">INT(IF($A3&lt;10,$A3,$A3*600/($A3+600)))</f>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -49797,11 +49797,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -49814,11 +49814,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -49831,11 +49831,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -49848,11 +49848,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -49865,11 +49865,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -49882,11 +49882,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -49899,11 +49899,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -49916,11 +49916,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -49933,11 +49933,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>38</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -49950,11 +49950,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -49967,11 +49967,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -49984,11 +49984,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -50001,11 +50001,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -50018,11 +50018,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -50035,11 +50035,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -50052,11 +50052,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -50069,11 +50069,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>137</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -50086,11 +50086,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -50103,11 +50103,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>147</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -50120,11 +50120,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -50137,11 +50137,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -50154,11 +50154,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>71</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -50171,11 +50171,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -50188,11 +50188,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -50205,11 +50205,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>77</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -50222,11 +50222,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -50239,11 +50239,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>81</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -50256,11 +50256,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -50273,11 +50273,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -50290,11 +50290,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>195</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -50307,11 +50307,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -50324,11 +50324,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -50341,11 +50341,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -50358,11 +50358,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>209</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -50375,11 +50375,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -50392,11 +50392,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>215</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -50409,11 +50409,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -50426,11 +50426,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -50443,11 +50443,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>225</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -50460,11 +50460,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>228</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -50477,11 +50477,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>231</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -50494,11 +50494,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>234</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -50511,11 +50511,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>107</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -50528,11 +50528,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>260</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -50545,11 +50545,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>109</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -50562,11 +50562,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>111</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -50579,11 +50579,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>112</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -50596,11 +50596,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -50613,11 +50613,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -50630,11 +50630,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -50647,11 +50647,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -50664,11 +50664,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -50681,11 +50681,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -50698,11 +50698,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -50715,11 +50715,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -50732,11 +50732,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>268</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -50749,11 +50749,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -50766,11 +50766,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -50783,11 +50783,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>274</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -50800,11 +50800,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -50817,11 +50817,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>278</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -50834,11 +50834,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>280</v>
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -50851,11 +50851,11 @@
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -50867,12 +50867,12 @@
         <v>181</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="4">INT(IF($A67&lt;10,$A67,$A67*250/($A67+500)))</f>
-        <v>142</v>
+        <f t="shared" ref="C67:C130" si="4">INT(IF($A67&lt;10,$A67,$A67*500/($A67+500)))</f>
+        <v>284</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="5">INT(IF($A67&lt;10,$A67,$A67*250/($A67+600)))</f>
-        <v>130</v>
+        <f t="shared" ref="D67:D130" si="5">INT(IF($A67&lt;10,$A67,$A67*600/($A67+600)))</f>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -50885,11 +50885,11 @@
       </c>
       <c r="C68">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="D68">
         <f t="shared" si="5"/>
-        <v>131</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -50902,11 +50902,11 @@
       </c>
       <c r="C69">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="D69">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -50919,11 +50919,11 @@
       </c>
       <c r="C70">
         <f t="shared" si="4"/>
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="D70">
         <f t="shared" si="5"/>
-        <v>133</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -50936,11 +50936,11 @@
       </c>
       <c r="C71">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="D71">
         <f t="shared" si="5"/>
-        <v>134</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -50953,11 +50953,11 @@
       </c>
       <c r="C72">
         <f t="shared" si="4"/>
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="D72">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -50970,11 +50970,11 @@
       </c>
       <c r="C73">
         <f t="shared" si="4"/>
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>136</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -50987,11 +50987,11 @@
       </c>
       <c r="C74">
         <f t="shared" si="4"/>
-        <v>148</v>
+        <v>296</v>
       </c>
       <c r="D74">
         <f t="shared" si="5"/>
-        <v>137</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -51004,11 +51004,11 @@
       </c>
       <c r="C75">
         <f t="shared" si="4"/>
-        <v>149</v>
+        <v>298</v>
       </c>
       <c r="D75">
         <f t="shared" si="5"/>
-        <v>138</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -51021,11 +51021,11 @@
       </c>
       <c r="C76">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D76">
         <f t="shared" si="5"/>
-        <v>138</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -51038,11 +51038,11 @@
       </c>
       <c r="C77">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="D77">
         <f t="shared" si="5"/>
-        <v>139</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -51055,11 +51055,11 @@
       </c>
       <c r="C78">
         <f t="shared" si="4"/>
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="D78">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -51072,11 +51072,11 @@
       </c>
       <c r="C79">
         <f t="shared" si="4"/>
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="D79">
         <f t="shared" si="5"/>
-        <v>141</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -51089,11 +51089,11 @@
       </c>
       <c r="C80">
         <f t="shared" si="4"/>
-        <v>153</v>
+        <v>306</v>
       </c>
       <c r="D80">
         <f t="shared" si="5"/>
-        <v>142</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -51106,11 +51106,11 @@
       </c>
       <c r="C81">
         <f t="shared" si="4"/>
-        <v>153</v>
+        <v>307</v>
       </c>
       <c r="D81">
         <f t="shared" si="5"/>
-        <v>142</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -51123,11 +51123,11 @@
       </c>
       <c r="C82">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>309</v>
       </c>
       <c r="D82">
         <f t="shared" si="5"/>
-        <v>143</v>
+        <v>344</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -51140,11 +51140,11 @@
       </c>
       <c r="C83">
         <f t="shared" si="4"/>
-        <v>155</v>
+        <v>310</v>
       </c>
       <c r="D83">
         <f t="shared" si="5"/>
-        <v>144</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -51157,11 +51157,11 @@
       </c>
       <c r="C84">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>312</v>
       </c>
       <c r="D84">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -51174,11 +51174,11 @@
       </c>
       <c r="C85">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="D85">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>350</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -51191,11 +51191,11 @@
       </c>
       <c r="C86">
         <f t="shared" si="4"/>
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="D86">
         <f t="shared" si="5"/>
-        <v>146</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -51208,11 +51208,11 @@
       </c>
       <c r="C87">
         <f t="shared" si="4"/>
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="D87">
         <f t="shared" si="5"/>
-        <v>147</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -51225,11 +51225,11 @@
       </c>
       <c r="C88">
         <f t="shared" si="4"/>
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="D88">
         <f t="shared" si="5"/>
-        <v>147</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -51242,11 +51242,11 @@
       </c>
       <c r="C89">
         <f t="shared" si="4"/>
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="D89">
         <f t="shared" si="5"/>
-        <v>148</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -51259,11 +51259,11 @@
       </c>
       <c r="C90">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>320</v>
       </c>
       <c r="D90">
         <f t="shared" si="5"/>
-        <v>149</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -51276,11 +51276,11 @@
       </c>
       <c r="C91">
         <f t="shared" si="4"/>
-        <v>160</v>
+        <v>321</v>
       </c>
       <c r="D91">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -51293,11 +51293,11 @@
       </c>
       <c r="C92">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>322</v>
       </c>
       <c r="D92">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -51310,11 +51310,11 @@
       </c>
       <c r="C93">
         <f t="shared" si="4"/>
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="D93">
         <f t="shared" si="5"/>
-        <v>151</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -51327,11 +51327,11 @@
       </c>
       <c r="C94">
         <f t="shared" si="4"/>
-        <v>162</v>
+        <v>325</v>
       </c>
       <c r="D94">
         <f t="shared" si="5"/>
-        <v>151</v>
+        <v>364</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -51344,11 +51344,11 @@
       </c>
       <c r="C95">
         <f t="shared" si="4"/>
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="D95">
         <f t="shared" si="5"/>
-        <v>152</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -51361,11 +51361,11 @@
       </c>
       <c r="C96">
         <f t="shared" si="4"/>
-        <v>163</v>
+        <v>327</v>
       </c>
       <c r="D96">
         <f t="shared" si="5"/>
-        <v>153</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -51378,11 +51378,11 @@
       </c>
       <c r="C97">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>328</v>
       </c>
       <c r="D97">
         <f t="shared" si="5"/>
-        <v>153</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -51395,11 +51395,11 @@
       </c>
       <c r="C98">
         <f t="shared" si="4"/>
-        <v>164</v>
+        <v>329</v>
       </c>
       <c r="D98">
         <f t="shared" si="5"/>
-        <v>154</v>
+        <v>370</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -51412,11 +51412,11 @@
       </c>
       <c r="C99">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>372</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -51429,11 +51429,11 @@
       </c>
       <c r="C100">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>332</v>
       </c>
       <c r="D100">
         <f t="shared" si="5"/>
-        <v>155</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -51446,11 +51446,11 @@
       </c>
       <c r="C101">
         <f t="shared" si="4"/>
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="D101">
         <f t="shared" si="5"/>
-        <v>156</v>
+        <v>375</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -51463,11 +51463,11 @@
       </c>
       <c r="C102">
         <f t="shared" si="4"/>
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="D102">
         <f t="shared" si="5"/>
-        <v>156</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -51480,11 +51480,11 @@
       </c>
       <c r="C103">
         <f t="shared" si="4"/>
-        <v>167</v>
+        <v>335</v>
       </c>
       <c r="D103">
         <f t="shared" si="5"/>
-        <v>157</v>
+        <v>377</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -51497,11 +51497,11 @@
       </c>
       <c r="C104">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>336</v>
       </c>
       <c r="D104">
         <f t="shared" si="5"/>
-        <v>157</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -51514,11 +51514,11 @@
       </c>
       <c r="C105">
         <f t="shared" si="4"/>
-        <v>168</v>
+        <v>337</v>
       </c>
       <c r="D105">
         <f t="shared" si="5"/>
-        <v>158</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -51531,11 +51531,11 @@
       </c>
       <c r="C106">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="D106">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -51548,11 +51548,11 @@
       </c>
       <c r="C107">
         <f t="shared" si="4"/>
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="D107">
         <f t="shared" si="5"/>
-        <v>159</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -51565,11 +51565,11 @@
       </c>
       <c r="C108">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="D108">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -51582,11 +51582,11 @@
       </c>
       <c r="C109">
         <f t="shared" si="4"/>
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
-        <v>160</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -51599,11 +51599,11 @@
       </c>
       <c r="C110">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>342</v>
       </c>
       <c r="D110">
         <f t="shared" si="5"/>
-        <v>161</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -51616,11 +51616,11 @@
       </c>
       <c r="C111">
         <f t="shared" si="4"/>
-        <v>171</v>
+        <v>343</v>
       </c>
       <c r="D111">
         <f t="shared" si="5"/>
-        <v>161</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -51633,11 +51633,11 @@
       </c>
       <c r="C112">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="D112">
         <f t="shared" si="5"/>
-        <v>162</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -51650,11 +51650,11 @@
       </c>
       <c r="C113">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>345</v>
       </c>
       <c r="D113">
         <f t="shared" si="5"/>
-        <v>162</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -51667,11 +51667,11 @@
       </c>
       <c r="C114">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="D114">
         <f t="shared" si="5"/>
-        <v>163</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -51684,11 +51684,11 @@
       </c>
       <c r="C115">
         <f t="shared" si="4"/>
-        <v>173</v>
+        <v>347</v>
       </c>
       <c r="D115">
         <f t="shared" si="5"/>
-        <v>163</v>
+        <v>393</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -51701,11 +51701,11 @@
       </c>
       <c r="C116">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="D116">
         <f t="shared" si="5"/>
-        <v>164</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -51718,11 +51718,11 @@
       </c>
       <c r="C117">
         <f t="shared" si="4"/>
-        <v>174</v>
+        <v>349</v>
       </c>
       <c r="D117">
         <f t="shared" si="5"/>
-        <v>164</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -51735,11 +51735,11 @@
       </c>
       <c r="C118">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>350</v>
       </c>
       <c r="D118">
         <f t="shared" si="5"/>
-        <v>165</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -51752,11 +51752,11 @@
       </c>
       <c r="C119">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="D119">
         <f t="shared" si="5"/>
-        <v>165</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -51769,11 +51769,11 @@
       </c>
       <c r="C120">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="D120">
         <f t="shared" si="5"/>
-        <v>166</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -51786,11 +51786,11 @@
       </c>
       <c r="C121">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>352</v>
       </c>
       <c r="D121">
         <f t="shared" si="5"/>
-        <v>166</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -51803,11 +51803,11 @@
       </c>
       <c r="C122">
         <f t="shared" si="4"/>
-        <v>176</v>
+        <v>353</v>
       </c>
       <c r="D122">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -51820,11 +51820,11 @@
       </c>
       <c r="C123">
         <f t="shared" si="4"/>
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="D123">
         <f t="shared" si="5"/>
-        <v>167</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -51837,11 +51837,11 @@
       </c>
       <c r="C124">
         <f t="shared" si="4"/>
-        <v>177</v>
+        <v>355</v>
       </c>
       <c r="D124">
         <f t="shared" si="5"/>
-        <v>168</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -51854,11 +51854,11 @@
       </c>
       <c r="C125">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="D125">
         <f t="shared" si="5"/>
-        <v>168</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -51871,11 +51871,11 @@
       </c>
       <c r="C126">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>357</v>
       </c>
       <c r="D126">
         <f t="shared" si="5"/>
-        <v>168</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -51888,11 +51888,11 @@
       </c>
       <c r="C127">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>357</v>
       </c>
       <c r="D127">
         <f t="shared" si="5"/>
-        <v>169</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -51905,11 +51905,11 @@
       </c>
       <c r="C128">
         <f t="shared" si="4"/>
-        <v>179</v>
+        <v>358</v>
       </c>
       <c r="D128">
         <f t="shared" si="5"/>
-        <v>169</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -51922,11 +51922,11 @@
       </c>
       <c r="C129">
         <f t="shared" si="4"/>
-        <v>179</v>
+        <v>359</v>
       </c>
       <c r="D129">
         <f t="shared" si="5"/>
-        <v>170</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -51939,11 +51939,11 @@
       </c>
       <c r="C130">
         <f t="shared" si="4"/>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D130">
         <f t="shared" si="5"/>
-        <v>170</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -51955,12 +51955,12 @@
         <v>209</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C151" si="7">INT(IF($A131&lt;10,$A131,$A131*250/($A131+500)))</f>
-        <v>180</v>
+        <f t="shared" ref="C131:C151" si="7">INT(IF($A131&lt;10,$A131,$A131*500/($A131+500)))</f>
+        <v>361</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D151" si="8">INT(IF($A131&lt;10,$A131,$A131*250/($A131+600)))</f>
-        <v>171</v>
+        <f t="shared" ref="D131:D151" si="8">INT(IF($A131&lt;10,$A131,$A131*600/($A131+600)))</f>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -51973,11 +51973,11 @@
       </c>
       <c r="C132">
         <f t="shared" si="7"/>
-        <v>180</v>
+        <v>361</v>
       </c>
       <c r="D132">
         <f t="shared" si="8"/>
-        <v>171</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -51990,11 +51990,11 @@
       </c>
       <c r="C133">
         <f t="shared" si="7"/>
-        <v>181</v>
+        <v>362</v>
       </c>
       <c r="D133">
         <f t="shared" si="8"/>
-        <v>171</v>
+        <v>412</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -52007,11 +52007,11 @@
       </c>
       <c r="C134">
         <f t="shared" si="7"/>
-        <v>181</v>
+        <v>363</v>
       </c>
       <c r="D134">
         <f t="shared" si="8"/>
-        <v>172</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -52024,11 +52024,11 @@
       </c>
       <c r="C135">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="D135">
         <f t="shared" si="8"/>
-        <v>172</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -52041,11 +52041,11 @@
       </c>
       <c r="C136">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>364</v>
       </c>
       <c r="D136">
         <f t="shared" si="8"/>
-        <v>173</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -52058,11 +52058,11 @@
       </c>
       <c r="C137">
         <f t="shared" si="7"/>
-        <v>182</v>
+        <v>365</v>
       </c>
       <c r="D137">
         <f t="shared" si="8"/>
-        <v>173</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -52075,11 +52075,11 @@
       </c>
       <c r="C138">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>366</v>
       </c>
       <c r="D138">
         <f t="shared" si="8"/>
-        <v>173</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -52092,11 +52092,11 @@
       </c>
       <c r="C139">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>367</v>
       </c>
       <c r="D139">
         <f t="shared" si="8"/>
-        <v>174</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -52109,11 +52109,11 @@
       </c>
       <c r="C140">
         <f t="shared" si="7"/>
-        <v>183</v>
+        <v>367</v>
       </c>
       <c r="D140">
         <f t="shared" si="8"/>
-        <v>174</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -52126,11 +52126,11 @@
       </c>
       <c r="C141">
         <f t="shared" si="7"/>
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="D141">
         <f t="shared" si="8"/>
-        <v>175</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -52143,11 +52143,11 @@
       </c>
       <c r="C142">
         <f t="shared" si="7"/>
-        <v>184</v>
+        <v>369</v>
       </c>
       <c r="D142">
         <f t="shared" si="8"/>
-        <v>175</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -52160,11 +52160,11 @@
       </c>
       <c r="C143">
         <f t="shared" si="7"/>
-        <v>184</v>
+        <v>369</v>
       </c>
       <c r="D143">
         <f t="shared" si="8"/>
-        <v>175</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -52177,11 +52177,11 @@
       </c>
       <c r="C144">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>370</v>
       </c>
       <c r="D144">
         <f t="shared" si="8"/>
-        <v>176</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -52194,11 +52194,11 @@
       </c>
       <c r="C145">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="D145">
         <f t="shared" si="8"/>
-        <v>176</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -52211,11 +52211,11 @@
       </c>
       <c r="C146">
         <f t="shared" si="7"/>
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="D146">
         <f t="shared" si="8"/>
-        <v>176</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -52228,11 +52228,11 @@
       </c>
       <c r="C147">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="D147">
         <f t="shared" si="8"/>
-        <v>177</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -52245,11 +52245,11 @@
       </c>
       <c r="C148">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>373</v>
       </c>
       <c r="D148">
         <f t="shared" si="8"/>
-        <v>177</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -52262,11 +52262,11 @@
       </c>
       <c r="C149">
         <f t="shared" si="7"/>
-        <v>186</v>
+        <v>373</v>
       </c>
       <c r="D149">
         <f t="shared" si="8"/>
-        <v>177</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -52279,11 +52279,11 @@
       </c>
       <c r="C150">
         <f t="shared" si="7"/>
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="D150">
         <f t="shared" si="8"/>
-        <v>178</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -52296,11 +52296,11 @@
       </c>
       <c r="C151">
         <f t="shared" si="7"/>
-        <v>187</v>
+        <v>375</v>
       </c>
       <c r="D151">
         <f t="shared" si="8"/>
-        <v>178</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
